--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83046B02-944A-4434-AB80-DC7FF345A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986B49A-E136-4710-94BA-C8C064226D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -33,12 +33,97 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>first encounter</t>
+  </si>
+  <si>
+    <t>take aways</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximize-score-of-numbers-in-ranges/</t>
+  </si>
+  <si>
+    <t>LC medium</t>
+  </si>
+  <si>
+    <t>no done</t>
+  </si>
+  <si>
+    <t>Couldn't come with a proper brute force solution</t>
+  </si>
+  <si>
+    <t>Any question where answer can be in a range. fixed range like 0 - 10^9 u can try all the answer which is pure brute force but you can optimize it using binary search . Even tho logn * n sounds more harsh than nlogn it actually the same thing.</t>
+  </si>
+  <si>
+    <t>Sr no</t>
+  </si>
+  <si>
+    <t>similar question</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reach-end-of-array-with-max-score/</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The constraints threw me off. Since the constraint was 10^5 I was stuck with think appoch nlong something like using map, sorting etc. </t>
+  </si>
+  <si>
+    <t>That was a dumb mistake the question could have done with easily using o(n) complexity using greedy. So the thing I thought is usually useful but don’t fixate on it there could always be a better solution with better TC</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-maximum-probability/</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Thought about dp straight of</t>
+  </si>
+  <si>
+    <t>First question In which I actually used dijsktras with priority queue</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1999/F</t>
+  </si>
+  <si>
+    <t>First thought was to use dfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Is a elegant Permuation and combination question. Key take away is how to use permuation function with large large numbers </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +146,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,12 +473,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="28.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{C2467CF8-8C43-43EF-98B5-A0F27163E26E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986B49A-E136-4710-94BA-C8C064226D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13312AF-B0D4-4FF8-AAAF-C775CC7F2304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>problem</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t xml:space="preserve">This Is a elegant Permuation and combination question. Key take away is how to use permuation function with large large numbers </t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/problems/BALL_GAME</t>
+  </si>
+  <si>
+    <t>cc 1700</t>
+  </si>
+  <si>
+    <t>I had a clear logic because I think I did similar question before</t>
+  </si>
+  <si>
+    <t>I did mistake of not thinking how the case mentioned will effect as individual and as whole sepeartely. also was not mind full when trying to come up with edge case</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +608,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13312AF-B0D4-4FF8-AAAF-C775CC7F2304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F670E-609A-4080-8876-E0DD179F9E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>problem</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>I did mistake of not thinking how the case mentioned will effect as individual and as whole sepeartely. also was not mind full when trying to come up with edge case</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2009/D</t>
+  </si>
+  <si>
+    <t>was not able to find the 2 observation required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was a maths derivation. could have done with observation aswell but Ig I don’t have enough smartness / experience to do it yet </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2009/E</t>
+  </si>
+  <si>
+    <t>tried everything from my end. in constent came up with dp o(n) solution but integer overflow problem.</t>
+  </si>
+  <si>
+    <t>during upsolve tried binary search as well it looks like still overflow problem presists. looked at answer it seems like I should have done negative and positive sepeartely in binary search maybe I am not this level yet</t>
   </si>
 </sst>
 </file>
@@ -485,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,6 +643,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F670E-609A-4080-8876-E0DD179F9E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62224A7B-7450-487C-B099-4F84FCF3E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>problem</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>during upsolve tried binary search as well it looks like still overflow problem presists. looked at answer it seems like I should have done negative and positive sepeartely in binary search maybe I am not this level yet</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2004/problem/D</t>
+  </si>
+  <si>
+    <t>First approch mine that came to mind was dijsktra which is good one but will give TLE</t>
+  </si>
+  <si>
+    <t>The input had words and all the combination in which the input can be given was mentioned in question. ignored that but I was indeed a useful piece of information.</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +686,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62224A7B-7450-487C-B099-4F84FCF3E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380D207-FDD2-491F-84F7-60BAA9C95DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>problem</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>The input had words and all the combination in which the input can be given was mentioned in question. ignored that but I was indeed a useful piece of information.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/description/?envType=daily-question&amp;envId=2024-09-15</t>
+  </si>
+  <si>
+    <t>code question</t>
+  </si>
+  <si>
+    <t>One thing I noticed is  I am sometimes while thinking thru my ideas. for some reason I give up my ideas half way even tho if I write it down and do full analyze it once I might get the answer don’t visualize logic and leave it am not at that level to do without pen paper use it for now</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -197,6 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,12 +713,30 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{C2467CF8-8C43-43EF-98B5-A0F27163E26E}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{0718281B-5AD3-4070-AB54-5436783353F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380D207-FDD2-491F-84F7-60BAA9C95DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA992A-E5DB-4355-9F9D-B91C8D185CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>problem</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>One thing I noticed is  I am sometimes while thinking thru my ideas. for some reason I give up my ideas half way even tho if I write it down and do full analyze it once I might get the answer don’t visualize logic and leave it am not at that level to do without pen paper use it for now</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2002/C</t>
+  </si>
+  <si>
+    <t>cf 1200</t>
+  </si>
+  <si>
+    <t>looked very hard in the start but had sweet maths solution to it</t>
+  </si>
+  <si>
+    <t>do not convert numbers into decimal will loose precision so try to keep it as whole numbers in any comparison if possible change equation of conversion from division to multiplication</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +742,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA992A-E5DB-4355-9F9D-B91C8D185CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254A585-FA1B-4681-9D84-DB6DA9E64E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>problem</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>do not convert numbers into decimal will loose precision so try to keep it as whole numbers in any comparison if possible change equation of conversion from division to multiplication</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2020/problem/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">always use sqrtl instead of sqrt when precision matters. </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/2014/D</t>
+  </si>
+  <si>
+    <t>cf 1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>main part of the question was to convert it into simpler version. coding wise the question is easy simple sliding window it is. but knowing how to distribute the array for it is the real part</t>
+  </si>
+  <si>
+    <t>always try to break down question into simpler parts. and always look from whole perspective and indivdual unit perspective</t>
   </si>
 </sst>
 </file>
@@ -534,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,6 +783,37 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254A585-FA1B-4681-9D84-DB6DA9E64E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C7FFA-3281-4DF6-A461-B68FA92E7993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>problem</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>always try to break down question into simpler parts. and always look from whole perspective and indivdual unit perspective</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc196/tasks/abc196_c</t>
+  </si>
+  <si>
+    <t>pow works weird when working long long and stuff pow(10, 2) giving 99 instead of 100</t>
+  </si>
+  <si>
+    <t>The answer was simple but thought might give tle and simply messed it up</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,6 +823,20 @@
         <v>51</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C7FFA-3281-4DF6-A461-B68FA92E7993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F1FC79-59D9-4F8C-930F-363679223DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>problem</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>The answer was simple but thought might give tle and simply messed it up</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc193/tasks/abc193_c</t>
+  </si>
+  <si>
+    <t>While working with long long number make sure not to create stl in int get set&lt;int&gt; etc.</t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,13 +843,25 @@
         <v>54</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{C2467CF8-8C43-43EF-98B5-A0F27163E26E}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{0718281B-5AD3-4070-AB54-5436783353F1}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{849D6BCD-8B91-4B3B-97DB-E18076383FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F1FC79-59D9-4F8C-930F-363679223DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB70C4C-8612-4C62-ADB5-8D03D43E7D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>problem</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>While working with long long number make sure not to create stl in int get set&lt;int&gt; etc.</t>
+  </si>
+  <si>
+    <t>https://cses.fi/problemset/task/1091/</t>
+  </si>
+  <si>
+    <t>cses</t>
+  </si>
+  <si>
+    <t>set and multiset is best when have to do binary search and remove element from mid and repeat it.</t>
   </si>
 </sst>
 </file>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,6 +863,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB70C4C-8612-4C62-ADB5-8D03D43E7D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F52921-4A0F-462E-A5B1-7C327A4F582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>problem</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>set and multiset is best when have to do binary search and remove element from mid and repeat it.</t>
+  </si>
+  <si>
+    <t>https://cses.fi/problemset/task/1164/</t>
+  </si>
+  <si>
+    <t>Did common mistake of sorting the array and forgetting need to return answer respect to original array not sorted one.</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc227/tasks/abc227_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>at 692</t>
+  </si>
+  <si>
+    <t>Really good question that combines smart math , observation and coding. defo try again later in future</t>
   </si>
 </sst>
 </file>
@@ -582,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,8 +891,39 @@
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB70C4C-8612-4C62-ADB5-8D03D43E7D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5191F53B-4F68-4892-B59E-FFC50147EF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>problem</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>set and multiset is best when have to do binary search and remove element from mid and repeat it.</t>
+  </si>
+  <si>
+    <t>https://cses.fi/problemset/task/1164/</t>
+  </si>
+  <si>
+    <t>Did common mistake of sorting the array and forgetting need to return answer respect to original array not sorted one.</t>
   </si>
 </sst>
 </file>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,6 +883,20 @@
         <v>59</v>
       </c>
     </row>
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4BEC86-EBD1-4ED0-823F-21151471CD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3180481-9CEA-46A4-97A6-5C94310615C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>problem</t>
   </si>
@@ -238,6 +238,45 @@
   </si>
   <si>
     <t>remember when u have sliding window thing and removing is of increasing order sum or mult of subsequence u can always remove previous sum thingy coz it decrease one unit of each left behind.</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc216/tasks/abc216_d</t>
+  </si>
+  <si>
+    <t>at 1039</t>
+  </si>
+  <si>
+    <t>Remember this neat lil trick, whenever u need something like max two sum, or store 2 digits and do something don’t use map of pair this can be done using map&lt;int, int&gt; itself.</t>
+  </si>
+  <si>
+    <t>learned this trick from one of the solution for this leetcode question : https://leetcode.com/problems/max-sum-of-a-pair-with-equal-sum-of-digits/</t>
+  </si>
+  <si>
+    <t>https://training.olinfo.it/task/ois_butoaie</t>
+  </si>
+  <si>
+    <t>idk logic looks like why its wrong maybe try again in future. the editorial for this sucks so yea you are on your own buddy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if u can solve try this as well bruh https://training.olinfo.it/task/ois_wine </t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc272/tasks/abc272_e</t>
+  </si>
+  <si>
+    <t>at 1434</t>
+  </si>
+  <si>
+    <t>int mex question check if answer will be always between 0 to N</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc252/tasks/abc252_d</t>
+  </si>
+  <si>
+    <t>at 884</t>
+  </si>
+  <si>
+    <t>simply a elagent question</t>
   </si>
 </sst>
 </file>
@@ -606,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,6 +982,65 @@
         <v>67</v>
       </c>
     </row>
+    <row r="20" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3180481-9CEA-46A4-97A6-5C94310615C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D32EA0-A5A3-411B-8CA1-CB2F9BB076CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>problem</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>simply a elagent question</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2063/problem/A</t>
+  </si>
+  <si>
+    <t>cf 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcd(x, x + 1) == 1 </t>
   </si>
 </sst>
 </file>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1050,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="24" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D32EA0-A5A3-411B-8CA1-CB2F9BB076CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9585F99-E651-4B52-A980-1AE4538D29C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>problem</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">gcd(x, x + 1) == 1 </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2085/problem/C</t>
+  </si>
+  <si>
+    <t>cf 1600</t>
+  </si>
+  <si>
+    <t>some imp bitwise equations : https://codeforces.com/blog/entry/94470</t>
   </si>
 </sst>
 </file>
@@ -654,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,6 +1073,20 @@
         <v>83</v>
       </c>
     </row>
+    <row r="25" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>

--- a/take_aways.xlsx
+++ b/take_aways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithesh\Documents\github\CP_notes\CP_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9585F99-E651-4B52-A980-1AE4538D29C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF4F8B-7F78-4087-9189-46C9053FBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1066A7A-5E28-47FA-AFBA-961FD32DAE58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>problem</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>some imp bitwise equations : https://codeforces.com/blog/entry/94470</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/2075/problem/C</t>
+  </si>
+  <si>
+    <t>cf 1500</t>
+  </si>
+  <si>
+    <t>Read question properly. the 2 rule makes the question way more eaiser. Didn't pay attention got overwhelemed and gave up.</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36718C-7E11-4E10-92EF-1CA1F277B1DA}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,6 +1096,20 @@
         <v>86</v>
       </c>
     </row>
+    <row r="26" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{07866BBE-2668-48A8-96D1-A68747CEBA01}"/>
